--- a/Ebola dataset.xlsx
+++ b/Ebola dataset.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redasemlani/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbaker/Documents/GitHub/virus_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BAE5C-B63B-4343-8DE4-FB9559DBFFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="2660" windowWidth="24160" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="4640" yWindow="2660" windowWidth="24160" windowHeight="12700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,22 +71,22 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Total cases</t>
-  </si>
-  <si>
-    <t>Total deaths</t>
-  </si>
-  <si>
-    <t>Fatality</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ebola Total cases</t>
+  </si>
+  <si>
+    <t>Ebola Total deaths</t>
+  </si>
+  <si>
+    <t>Ebola Fatality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -152,6 +161,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -419,12 +431,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -436,13 +446,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +609,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <f>SUM(B2:B11)</f>
